--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6092523-7965-4191-9CE7-E2CF6962B9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF83847-307C-4EA2-B094-4584A82494DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="80" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +84,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깃등록하기, api 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 깃등록하기
+2. api 가져오기 (사이트:  https://iexcloud.io/)
+-api키: pk_cc9d0be588704852a3e1b6e3c91b1e65
+-파이썬에서 Https 요청을 보낼것 : requests라는 파이썬 라이브러리 필요 (pip install requests)
+ 설치 후 import requests (요청처리) / import json (api가 반환한 걸 json형식으로 정보처리)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 깃 옮겼던 방법: 
+여러가지 옮기는 방법이 있는거같지만 그냥 git init(깃생성) -&gt; git remote add origin [깃저장소주소] -&gt; add / commit /push
+2. 커밋내용(log)까지 베껴오는 법은 모르겠다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 즐겨찾기 추가한 동적 리스트를 가져오기 위해 동적변수리스트 사용
+동적변수생성방법:
+ 1. globals() : local 변수를 딕셔너리형태로 변환
+ 2. locals() : global변수를 딕셔너리 형태로 변환
+- index1 페이지에 값들 집어넣어보기
+- 오라클/DB연결하는 방법?
+- 테이블 구성?
+- 크롤링?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -555,20 +581,30 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>44172</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF83847-307C-4EA2-B094-4584A82494DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A1D88-7D32-42C8-BCC4-860B7A3DEEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 깃등록하기
 2. api 가져오기 (사이트:  https://iexcloud.io/)
 -api키: pk_cc9d0be588704852a3e1b6e3c91b1e65
@@ -107,14 +103,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- index1 페이지에 값들 집어넣어보기
+- 오라클/DB연결하는 방법?
+- 테이블 구성?
+- 크롤링?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 즐겨찾기 추가한 동적 리스트를 가져오기 위해 동적변수리스트 사용
 동적변수생성방법:
  1. globals() : local 변수를 딕셔너리형태로 변환
  2. locals() : global변수를 딕셔너리 형태로 변환
-- index1 페이지에 값들 집어넣어보기
-- 오라클/DB연결하는 방법?
-- 테이블 구성?
-- 크롤링?</t>
+불러오고 싶은 주식 이름(즐겨찾기에 추가된것) 들을 동적 리스트 안에 넣고
+for문을 통해 각각 api로 값들을 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차_1 방식으로 할 경우 html로 랜더링할때 일일히 변수값(애플값따로,테슬라값따로..) 을 입력해줘야하는 귀찮음이 있어
+한 리스트에 통일된 방식으로 넣는게 맞다고 판단함.
+그래서 값을 보낼 큰 리스트 (apiList) 안에 주식값들이 들어있는 딕셔너리(apiListValue)를 넣준 구조를 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templates에서의 for문으로 리스트 출력해줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +209,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,6 +277,138 @@
         <a:xfrm>
           <a:off x="3799443" y="2870200"/>
           <a:ext cx="4884309" cy="2938217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>860436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6197600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>567716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3123A2DA-D9A4-4D38-A5BF-11426D8E902C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504949" y="8632836"/>
+          <a:ext cx="6172201" cy="4907930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>868137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6286641</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5122742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64929626-2CBF-4707-B732-6791BF1B1473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487713" y="15046780"/>
+          <a:ext cx="6277571" cy="4254605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6772</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4325859</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5188857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752F6AA1-0945-4E76-846E-6DDDF2466D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485415" y="19703143"/>
+          <a:ext cx="4319087" cy="4862285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -589,42 +756,58 @@
         <v>44172</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44173</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44173</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="4"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -680,6 +863,12 @@
       <c r="D24" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A1D88-7D32-42C8-BCC4-860B7A3DEEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE1C75C-B240-4778-AC56-E76A3FBE6A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1510" yWindow="50" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,13 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- index1 페이지에 값들 집어넣어보기
-- 오라클/DB연결하는 방법?
-- 테이블 구성?
-- 크롤링?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5일차_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +131,23 @@
   </si>
   <si>
     <t>templates에서의 for문으로 리스트 출력해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index2(테스트페이지)-&gt;index1(실제메인화면)으로 옮기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 눌렀을때 나오는 화면 구상하기
+-속도빠르게
+- 오라클/DB연결하는 방법?
+- 테이블 구성?
+- 크롤링?
+- 이벤트 집어넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,14 +220,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -685,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -763,55 +782,72 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
         <v>44173</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44173</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="C11" s="9" t="s">
-        <v>14</v>
+      <c r="B11" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="4"/>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
+        <v>44174</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE1C75C-B240-4778-AC56-E76A3FBE6A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749FDAEA-6BDF-4CDB-A1AF-B1D8731259E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1510" yWindow="50" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="280" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,16 +138,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index2(테스트페이지)-&gt;index1(실제메인화면)으로 옮기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 눌렀을때 나오는 화면 구상하기
 -속도빠르게
 - 오라클/DB연결하는 방법?
 - 테이블 구성?
 - 크롤링?
 - 이벤트 집어넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index2(테스트페이지)-&gt;index1(실제메인화면)으로 옮기기
+1. 로딩시간 구하기: 
+starttime=time.time() / loadingTime=time.time-starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 7,8번 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,12 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,17 +221,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,9 +364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6286641</xdr:colOff>
+      <xdr:colOff>6368143</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5122742</xdr:rowOff>
+      <xdr:rowOff>5177980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -383,7 +390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1487713" y="15046780"/>
-          <a:ext cx="6277571" cy="4254605"/>
+          <a:ext cx="6359073" cy="4309843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,8 +718,8 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.9140625" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -722,10 +729,10 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -733,25 +740,25 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>44157</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>44160</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -759,144 +766,152 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>44165</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>44172</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>44173</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>44173</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>44173</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>44173</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44179</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
+        <v>44174</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
-        <v>44174</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749FDAEA-6BDF-4CDB-A1AF-B1D8731259E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDECB421-3BB6-4A9E-AFC0-E505E5117B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2280" yWindow="280" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4430" yWindow="1530" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오류 7,8번 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +712,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -850,13 +850,13 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11">
         <v>44179</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
     </row>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDECB421-3BB6-4A9E-AFC0-E505E5117B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F94A6D-0CFE-4B94-BB1A-E6C89DF02191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="1530" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2200" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,26 +138,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 눌렀을때 나오는 화면 구상하기
+    <t>index2(테스트페이지)-&gt;index1(실제메인화면)으로 옮기기
+1. 로딩시간 구하기: 
+starttime=time.time() / loadingTime=time.time-starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 7,8번 해결하려 비동기처리했으나 시간은 여전히 똑같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt+window+s : 드래그로 캡처 복사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지 비동기로 가져오기 성공 (오류 6.1~6.2 해결완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-비동기로 가져오는것 마무리 하기(변수정리)등등
+- 눌렀을때 나오는 화면 구상하기
 -속도빠르게
 - 오라클/DB연결하는 방법?
 - 테이블 구성?
 - 크롤링?
 - 이벤트 집어넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index2(테스트페이지)-&gt;index1(실제메인화면)으로 옮기기
-1. 로딩시간 구하기: 
-starttime=time.time() / loadingTime=time.time-starttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 7,8번 해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6일차_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,26 +248,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,6 +465,94 @@
         <a:xfrm>
           <a:off x="1485415" y="19703143"/>
           <a:ext cx="4319087" cy="4862285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6458857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5179142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666706BF-5BD3-405B-93C7-D307228AD07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510357" y="25536071"/>
+          <a:ext cx="6427143" cy="4861642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4083656</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4356099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B03636E-D3FD-44D9-A87B-515EA90841E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487715" y="31015214"/>
+          <a:ext cx="4074584" cy="3975099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,14 +829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.9140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="15" customWidth="1"/>
     <col min="4" max="4" width="37.4140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -729,7 +847,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -743,7 +861,7 @@
       <c r="B2" s="3">
         <v>44157</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5"/>
@@ -755,7 +873,7 @@
       <c r="B3" s="3">
         <v>44160</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -769,7 +887,7 @@
       <c r="B4" s="3">
         <v>44165</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5"/>
@@ -781,7 +899,7 @@
       <c r="B5" s="3">
         <v>44172</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -795,22 +913,22 @@
       <c r="B6" s="13">
         <v>44173</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -819,7 +937,7 @@
       <c r="B9" s="8">
         <v>44173</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5"/>
@@ -831,7 +949,7 @@
       <c r="B10" s="8">
         <v>44173</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5"/>
@@ -843,74 +961,95 @@
       <c r="B11" s="8">
         <v>44173</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="9">
+        <v>44179</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11">
         <v>44179</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44183</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44184</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>44174</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="10"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="10"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="10"/>
+      <c r="C16" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="10"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="10"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="10"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="10"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="10"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="10"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="10"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="10"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5"/>
     </row>
   </sheetData>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F94A6D-0CFE-4B94-BB1A-E6C89DF02191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605F839-A4F0-4F22-A6B5-039A59A67CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2200" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="550" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>웹페이지 비동기로 가져오기 성공 (오류 6.1~6.2 해결완료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,6 +175,36 @@
 - 테이블 구성?
 - 크롤링?
 - 이벤트 집어넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지를 비동기로 가져오는 방법으로 구현 완료함
+참조: 1.  https://www.youtube.com/watch?v=qdm2o0JSuXc  6:41~
+       2. https://stackoverflow.com/questions/46727787/runtimeerror-there-is-no-current-event-loop-in-thread-in-async-apscheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 진행상황:
+웹에서 비동기로 받은 바이트열 json형식으로 받아 html로 보내기 완료(오류목록 10)
+1. 웹페이지 비동기로 가져오는 방법 정리:
+ urlopen / read 함수는 결과가 나올 때까지 코드 실행이 중단되는데 이를 i/o함수라고 부른다. 네이티브 코루틴(파이썬 비동기) 안에서 i/o함수를 실행하려면 run_in_executor함수를  사용하여 다른 쓰레드에서 실행시켜야한다.
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 코드 정리 / 비동기 함수 방법 적기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +284,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -267,16 +302,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,16 +862,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.9140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="37.4140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,7 +882,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -861,7 +896,7 @@
       <c r="B2" s="3">
         <v>44157</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5"/>
@@ -873,7 +908,7 @@
       <c r="B3" s="3">
         <v>44160</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -887,7 +922,7 @@
       <c r="B4" s="3">
         <v>44165</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5"/>
@@ -899,7 +934,7 @@
       <c r="B5" s="3">
         <v>44172</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -907,28 +942,28 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="19">
         <v>44173</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -937,7 +972,7 @@
       <c r="B9" s="8">
         <v>44173</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5"/>
@@ -949,7 +984,7 @@
       <c r="B10" s="8">
         <v>44173</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5"/>
@@ -961,7 +996,7 @@
       <c r="B11" s="8">
         <v>44173</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5"/>
@@ -973,7 +1008,7 @@
       <c r="B12" s="9">
         <v>44179</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5"/>
@@ -985,7 +1020,7 @@
       <c r="B13" s="11">
         <v>44179</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5"/>
@@ -997,60 +1032,77 @@
       <c r="B14" s="11">
         <v>44183</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="15" customFormat="1" ht="365.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44187</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" s="15" customFormat="1" ht="365.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
+        <v>44174</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11">
-        <v>44184</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B16" s="8">
-        <v>44174</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="15"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="15"/>
+    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="15"/>
+    <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="12"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="15"/>
+    <row r="20" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="12"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="15"/>
+    <row r="21" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="15"/>
+    <row r="22" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="15"/>
+    <row r="23" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="15"/>
+    <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="12"/>
       <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605F839-A4F0-4F22-A6B5-039A59A67CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6BF4C-5EC7-440E-A58B-B42A00C04938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="550" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,23 +188,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8일차_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 코드 정리 / 비동기 함수 방법 적기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. 진행상황:
-웹에서 비동기로 받은 바이트열 json형식으로 받아 html로 보내기 완료(오류목록 10)
-1. 웹페이지 비동기로 가져오는 방법 정리:
- urlopen / read 함수는 결과가 나올 때까지 코드 실행이 중단되는데 이를 i/o함수라고 부른다. 네이티브 코루틴(파이썬 비동기) 안에서 i/o함수를 실행하려면 run_in_executor함수를  사용하여 다른 쓰레드에서 실행시켜야한다.
+오류 10 해결
  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8일차_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불필요한 코드 정리 / 비동기 함수 방법 적기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,6 +582,94 @@
         <a:xfrm>
           <a:off x="1487715" y="31015214"/>
           <a:ext cx="4074584" cy="3975099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807357</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>253783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7223492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216EEFE2-6F91-4A88-A16E-C205D4564FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469571" y="36593926"/>
+          <a:ext cx="7232564" cy="4091431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4340516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7202715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0379AEA5-223F-4CB2-A5F5-36670D1B0C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478644" y="40680659"/>
+          <a:ext cx="7202714" cy="2583790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1039,7 +1121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="365.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
@@ -1047,69 +1129,73 @@
         <v>44187</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" s="15" customFormat="1" ht="365.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="19">
+        <v>44187</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>44174</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C19" s="12"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C20" s="12"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C21" s="12"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6BF4C-5EC7-440E-A58B-B42A00C04938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071BAD8-9DAC-49B5-AC0C-8945248DA3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,37 +168,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>웹페이지를 비동기로 가져오는 방법으로 구현 완료함
+참조: 1.  https://www.youtube.com/watch?v=qdm2o0JSuXc  6:41~
+       2. https://stackoverflow.com/questions/46727787/runtimeerror-there-is-no-current-event-loop-in-thread-in-async-apscheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-비동기로 가져오는것 마무리 하기(변수정리)등등
 - 눌렀을때 나오는 화면 구상하기
--속도빠르게
 - 오라클/DB연결하는 방법?
 - 테이블 구성?
 - 크롤링?
-- 이벤트 집어넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹페이지를 비동기로 가져오는 방법으로 구현 완료함
-참조: 1.  https://www.youtube.com/watch?v=qdm2o0JSuXc  6:41~
-       2. https://stackoverflow.com/questions/46727787/runtimeerror-there-is-no-current-event-loop-in-thread-in-async-apscheduler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8일차_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8일차_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불필요한 코드 정리 / 비동기 함수 방법 적기</t>
+- 이벤트 집어넣기
+- html date함수로 날짜 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1. 진행상황:
 오류 10 해결
+불필요한 코드 정리 / 비동기 함수 방법 적기
  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기존 html 수정 
+2. 새로운 html (주식클릭하면 나오게 될) 디자인 중간 점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,20 +294,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,6 +675,50 @@
         <a:xfrm>
           <a:off x="1478644" y="40680659"/>
           <a:ext cx="7202714" cy="2583790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24939</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>662214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4852434</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7973DAE8-8554-4548-A019-0465C205ACB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1503582" y="43923857"/>
+          <a:ext cx="4827495" cy="3356817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -957,7 +1006,7 @@
     <col min="4" max="4" width="37.4140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1032,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="306" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="306" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1058,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1035,19 +1084,19 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1108,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1120,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1132,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1144,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1156,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1118,84 +1167,90 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="B15" s="19">
         <v>44187</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="C15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="19">
-        <v>44187</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44188</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>44174</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="12"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="12"/>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C21" s="12"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071BAD8-9DAC-49B5-AC0C-8945248DA3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBD2667-C285-46AE-978F-F6381DD35EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="90" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,21 @@
   <si>
     <t>1. 기존 html 수정 
 2. 새로운 html (주식클릭하면 나오게 될) 디자인 중간 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_2</t>
+  </si>
+  <si>
+    <t>mainPage에서 주식명 누르면 stockPage로 넘어가게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. stockPage html 중간점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,14 +318,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,6 +743,50 @@
         <a:xfrm>
           <a:off x="1503582" y="43923857"/>
           <a:ext cx="4827495" cy="3356817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>245882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4289964</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3016706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E479B6F4-C881-4D4F-B205-8D87DA384897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="47517096"/>
+          <a:ext cx="4280893" cy="2770824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1073,28 +1141,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="22">
         <v>44173</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1171,57 +1239,74 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="22">
         <v>44187</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="16">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44188</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44188</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>44174</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBD2667-C285-46AE-978F-F6381DD35EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4CE918-DBB6-45CB-8B66-FA0293A277D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="90" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,15 +208,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9일차_2</t>
-  </si>
-  <si>
-    <t>mainPage에서 주식명 누르면 stockPage로 넘어가게 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. stockPage html 중간점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mainPage에서 주식명 누르면 stockPage로 넘어가게 하기
+onclick이벤트로 "stock.symbol값을 파라미터로 넘겨준다."
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. location.href로 다음에 이동할 페이지를 설정한다.
+2. ? 뒤로는 get방식으로 보내질 변수들이다.
+Ex) 파라미터값을 symbol이란 이름의 객체에 담아 보내겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. urlpattern에 따라 goStockpage()로 이동된다.
+2. goStockPage에서 get방식으로 보내진 변수를 아래와 같이 받을수 있다.</t>
   </si>
 </sst>
 </file>
@@ -259,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,14 +330,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -787,6 +820,182 @@
         <a:xfrm>
           <a:off x="1487714" y="47517096"/>
           <a:ext cx="4280893" cy="2770824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>480786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5504853</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>833260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D673F924-38F8-43EE-B96B-0143CC587F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505857" y="50836286"/>
+          <a:ext cx="5477639" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>671286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5829658</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2481289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623DDD37-E34A-4333-8686-C032CCC55E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="51861357"/>
+          <a:ext cx="5820587" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>444501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5878285</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1816593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6780A8-C728-4415-B41D-8B384E4C4534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514928" y="54147358"/>
+          <a:ext cx="5842000" cy="1372092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1932214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5684944</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3180163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E7FB4C-E30B-4A55-8EDB-356759B4D17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="55635071"/>
+          <a:ext cx="5639587" cy="1247949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1141,28 +1350,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="26">
         <v>44173</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1239,30 +1448,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="26">
         <v>44187</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -1280,42 +1489,58 @@
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>44188</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="18">
+        <v>44188</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="B21" s="21">
         <v>44188</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+      <c r="C21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="21">
+        <v>44188</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B23" s="21">
         <v>44174</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="12"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="12"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C24" s="12"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4CE918-DBB6-45CB-8B66-FA0293A277D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FD2BC-D617-4D70-BF44-99DA8E797208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10330" yWindow="280" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,15 @@
   <si>
     <t>1. urlpattern에 따라 goStockpage()로 이동된다.
 2. goStockPage에서 get방식으로 보내진 변수를 아래와 같이 받을수 있다.</t>
+  </si>
+  <si>
+    <t>9일차_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 코드정리 (결과 확인하기 위해 만든 print() 함수들 지움)
+2. welcome 오프닝~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -280,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +359,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1270,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1350,28 +1368,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="29">
         <v>44173</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1448,30 +1466,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="29">
         <v>44187</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -1533,22 +1551,34 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B23" s="21">
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="26">
+        <v>44188</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B24" s="21">
         <v>44174</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="12"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FD2BC-D617-4D70-BF44-99DA8E797208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC7BCF-AB15-4140-BFD5-59B4C7A94765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10330" yWindow="280" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,16 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-비동기로 가져오는것 마무리 하기(변수정리)등등
-- 눌렀을때 나오는 화면 구상하기
-- 오라클/DB연결하는 방법?
-- 테이블 구성?
-- 크롤링?
-- 이벤트 집어넣기
-- html date함수로 날짜 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 진행상황:
 오류 10 해결
 불필요한 코드 정리 / 비동기 함수 방법 적기
@@ -236,16 +226,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9일차_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 코드정리 (결과 확인하기 위해 만든 print() 함수들 지움)
+2. welcome 오프닝~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일차_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. urlpattern에 따라 goStockpage()로 이동된다.
 2. goStockPage에서 get방식으로 보내진 변수를 아래와 같이 받을수 있다.</t>
-  </si>
-  <si>
-    <t>9일차_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 코드정리 (결과 확인하기 위해 만든 print() 함수들 지움)
-2. welcome 오프닝~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. goStockPage(): 반쯤 작성  -&gt; 가져와야할 값 체크해서 랜더링해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-비동기로 가져오는것 마무리 하기(변수정리)등등
+- goStockPage 완성시키기
+- 오라클/DB연결하는 방법?
+- 테이블 구성?
+- 크롤링?
+- html date함수로 날짜 추가
+- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,20 +366,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1290,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1368,28 +1383,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="31">
         <v>44173</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1466,114 +1481,122 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="31">
         <v>44187</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="16">
         <v>44187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="18">
         <v>44188</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="18">
         <v>44188</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="21">
         <v>44188</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="21">
         <v>44188</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="25">
+        <v>44188</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="25" t="s">
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B24" s="28">
         <v>44188</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B24" s="21">
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+      <c r="B25" s="21">
         <v>44174</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="12"/>
+      <c r="C25" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC7BCF-AB15-4140-BFD5-59B4C7A94765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6D8C2-27D8-49B2-834A-88C5BD3619D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10330" yWindow="280" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3970" yWindow="560" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,13 +248,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-비동기로 가져오는것 마무리 하기(변수정리)등등
-- goStockPage 완성시키기
+    <t>10일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. html 정리 및 값 예쁘게 정리 (반올림 또는 단위추가)
+2. 부정확한 값/없는값/파악하지 못한 값들 (거래량, 종료주가, 종료주가 퍼센트, open, low, high 등)은
+  추후에 추가될 예정 (값 파악 또는 다른 방법으로 추가할 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- (10일차) 추후 값들 추가할 것/ 자바스크립트 조건문으로 상승한 주가는 빨강색 내려가면 파란색으로 표현
 - 오라클/DB연결하는 방법?
 - 테이블 구성?
 - 크롤링?
 - html date함수로 날짜 추가
-- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)</t>
+- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
+- 내 주식 이율 계산기
+- 검색기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +398,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1029,6 +1050,50 @@
         <a:xfrm>
           <a:off x="1524000" y="55635071"/>
           <a:ext cx="5639587" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>815069</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>961571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5204899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4998080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C22AD41-70F4-4DDA-A334-4F310133710F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1477283" y="59399714"/>
+          <a:ext cx="5206259" cy="4036509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1383,28 +1448,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="33">
         <v>44173</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1481,30 +1546,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="33">
         <v>44187</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -1590,18 +1655,35 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="B25" s="21">
-        <v>44174</v>
-      </c>
-      <c r="C25" s="29" t="s">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B25" s="29">
+        <v>44189</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="29">
+        <v>44190</v>
+      </c>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+      <c r="B31" s="21">
+        <v>44174</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B6D8C2-27D8-49B2-834A-88C5BD3619D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4B238F-C299-411D-87CD-02E7AD7B7C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3970" yWindow="560" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3970" yWindow="280" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,7 +269,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11일차</t>
+    <t>11_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html에 if문을 적용하여 stock_info.changePer에 따른 색상을 적용해주었다.
+음전이면 초록색 그 외에는 빨강색이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,6 +1099,94 @@
         <a:xfrm>
           <a:off x="1477283" y="59399714"/>
           <a:ext cx="5206259" cy="4036509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>564768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4971143</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4105389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97245654-A1E3-490F-A9E4-3DE20F4C6C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469572" y="64010339"/>
+          <a:ext cx="4980214" cy="3540621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4098483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3737429</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F30E7BE-2F7F-4E88-ABA2-CBE9B614F62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469572" y="67544054"/>
+          <a:ext cx="3746500" cy="1100980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1667,14 +1760,16 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="29">
         <v>44190</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="136" x14ac:dyDescent="0.45">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4B238F-C299-411D-87CD-02E7AD7B7C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF493-A8BA-4125-B484-462A3A51864B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3970" yWindow="280" windowWidth="13070" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,29 @@
   <si>
     <t>html에 if문을 적용하여 stock_info.changePer에 따른 색상을 적용해주었다.
 음전이면 초록색 그 외에는 빨강색이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqld.exe 위치: D:\sqldeveloper-20.2.0.175.1842-x64\sqldeveloper
+로그인 접속 정보:
+id: ksh03003
+pw: 1234
+sid: orcl
+sid 문제 생기면: https://hunit.tistory.com/211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. manage.py startapp crudnote: crudnote라는 이름의 app생성.
+2. ERD.hwp 작성: 테이블 정보가 담길 한글파일
+3. oracle 접속을 위한 아이디 및 db 생성하기
+1) cmd창을 이용하여 sql 계정을 생성 한후 권한을 부여한다.(오류 11참조)
+- create user [userID] identified [password];
+- grant [부여할 권한];
+2) 다음과 같이 접속한다. Sid바꿔줘야함 -&gt; cmd창 Lsnrctl services 입력 후 "[이 부분] 서비스는 ~를 가집니다" 이부분입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,14 +436,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1187,6 +1213,94 @@
         <a:xfrm>
           <a:off x="1469572" y="67544054"/>
           <a:ext cx="3746500" cy="1100980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1315358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6516752</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2287810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BBC046-36B6-4962-B040-B12C47C7AC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1496786" y="69958858"/>
+          <a:ext cx="6498609" cy="4691738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2848429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3655786</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5187904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD91620-26AE-4231-B8D8-0EC1AD3EFC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505856" y="75211215"/>
+          <a:ext cx="3628573" cy="2339475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1541,28 +1655,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>44173</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1639,32 +1753,32 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>44187</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1790,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1688,7 +1802,7 @@
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1814,7 @@
       </c>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>36</v>
       </c>
@@ -1712,7 +1826,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1838,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:5" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
         <v>40</v>
       </c>
@@ -1736,7 +1850,7 @@
       </c>
       <c r="D23" s="26"/>
     </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>42</v>
       </c>
@@ -1748,7 +1862,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1760,7 +1874,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1772,7 +1886,33 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="32">
+        <v>44193</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="35"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.45">
       <c r="B31" s="21">
         <v>44174</v>
       </c>
@@ -1781,16 +1921,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
+  <mergeCells count="16">
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF493-A8BA-4125-B484-462A3A51864B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BD07D-5F62-416A-8B4C-AC88D7D42CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="700" windowWidth="17660" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,16 @@
   </si>
   <si>
     <t>12_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. oracle 명령어를 기록할 오라클명령.xlsx 작성시작
+2. setting.py db정보에 아래와 같이 입력
+3. 환경변수 문제 해결 안된다 끝까지 (오류 12~13 해결 안됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,14 +449,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1301,6 +1317,50 @@
         <a:xfrm>
           <a:off x="1505856" y="75211215"/>
           <a:ext cx="3628573" cy="2339475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4409828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5143499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626452</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33949BE-9F18-4230-B2F4-F9D3C721C803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5888471" y="77506285"/>
+          <a:ext cx="7619410" cy="7203333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1655,28 +1715,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="36">
         <v>44173</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="35"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1753,30 +1813,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="36">
         <v>44187</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -1887,30 +1947,41 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="36">
         <v>44193</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="35"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="32">
+        <v>44193</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.45">
       <c r="B31" s="21">

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BD07D-5F62-416A-8B4C-AC88D7D42CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D6C5E-1DA3-4050-ACB6-B196DA0FAA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="700" windowWidth="17660" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3730" yWindow="210" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,16 @@
     <t>1. oracle 명령어를 기록할 오라클명령.xlsx 작성시작
 2. setting.py db정보에 아래와 같이 입력
 3. 환경변수 문제 해결 안된다 끝까지 (오류 12~13 해결 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클과 드디어 연결됐다. 버그 12~14참조.
+해결했는데 어떻게 해결했는지도 모르겠다.ㅋㅋ
+쩃든 고생했다. 아니 한것도 없음 환경변수 계속 설정해줬는데 연결조차 안됐다가 갑자기 다음날 서비스 재시작하니까됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,23 +462,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,15 +1341,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4409828</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>5143499</xdr:rowOff>
+      <xdr:colOff>28328</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>748903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>626452</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>163904</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3909786</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1359,8 +1372,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5888471" y="77506285"/>
-          <a:ext cx="7619410" cy="7203333"/>
+          <a:off x="1506971" y="78309617"/>
+          <a:ext cx="3881458" cy="3669501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31494</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>879923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6613071</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5120423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972D3B3C-2DEC-4302-B211-A63C608EE345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510137" y="82831209"/>
+          <a:ext cx="6581577" cy="4240500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1715,28 +1772,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="36">
         <v>44173</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1813,30 +1870,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="36">
         <v>44187</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="36"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -1947,30 +2004,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="36">
         <v>44193</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
@@ -1983,6 +2040,17 @@
         <v>54</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="34">
+        <v>44195</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.45">
       <c r="B31" s="21">
         <v>44174</v>
@@ -1993,11 +2061,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
@@ -2009,6 +2072,11 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D6C5E-1DA3-4050-ACB6-B196DA0FAA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540EDD84-4C84-4C19-AD04-B2279B20D30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="210" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="270" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,15 @@
     <t>오라클과 드디어 연결됐다. 버그 12~14참조.
 해결했는데 어떻게 해결했는지도 모르겠다.ㅋㅋ
 쩃든 고생했다. 아니 한것도 없음 환경변수 계속 설정해줬는데 연결조차 안됐다가 갑자기 다음날 서비스 재시작하니까됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_2일차</t>
+  </si>
+  <si>
+    <t>orcleWork.py 안에 함수 정의
+1. makeDictFactory: cx_Oracle는 select 해오는 쿼리 결과가 튜플인데 이를 딕셔너리 형태로 바꿔주는 함수
+2. bringmyStocks: "select stock_name from my_stock order by stock_name asc" sql문 사용하여 데이터 가져오는 함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,23 +474,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,6 +1430,50 @@
         <a:xfrm>
           <a:off x="1510137" y="82831209"/>
           <a:ext cx="6581577" cy="4240500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10544</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>653138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4792836</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5170712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9B7029-FD93-482E-B79A-D8629235DD9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1489187" y="87802352"/>
+          <a:ext cx="4782292" cy="4517574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1772,28 +1828,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="38">
         <v>44173</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1870,30 +1926,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="38">
         <v>44187</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2004,30 +2060,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="38">
         <v>44193</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
@@ -2051,16 +2107,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.45">
-      <c r="B31" s="21">
+    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="35">
+        <v>44195</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="136" x14ac:dyDescent="0.45">
+      <c r="B32" s="21">
         <v>44174</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C32" s="31" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
@@ -2072,11 +2144,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540EDD84-4C84-4C19-AD04-B2279B20D30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148C5F3-9671-4F89-AC4B-E770B11A1248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="270" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="110" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,17 +255,6 @@
     <t>1. html 정리 및 값 예쁘게 정리 (반올림 또는 단위추가)
 2. 부정확한 값/없는값/파악하지 못한 값들 (거래량, 종료주가, 종료주가 퍼센트, open, low, high 등)은
   추후에 추가될 예정 (값 파악 또는 다른 방법으로 추가할 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- (10일차) 추후 값들 추가할 것/ 자바스크립트 조건문으로 상승한 주가는 빨강색 내려가면 파란색으로 표현
-- 오라클/DB연결하는 방법?
-- 테이블 구성?
-- 크롤링?
-- html date함수로 날짜 추가
-- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
-- 내 주식 이율 계산기
-- 검색기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,6 +316,29 @@
     <t>orcleWork.py 안에 함수 정의
 1. makeDictFactory: cx_Oracle는 select 해오는 쿼리 결과가 튜플인데 이를 딕셔너리 형태로 바꿔주는 함수
 2. bringmyStocks: "select stock_name from my_stock order by stock_name asc" sql문 사용하여 데이터 가져오는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- (10일차) 추후 값들 추가할 것
+- 오라클/DB연결하는 방법?
+- 테이블 구성?
+- 크롤링?
+- html date함수로 날짜 추가
+- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
+- 내 주식 이율 계산기
+- 검색기능
+- 검색 했을때 없을 경우 : 되돌아가기
+- 자세히에서 검색 버튼 추가
+- 즐겨찾기 버튼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 버튼 구현 중 눌렀을때 스타일 바뀌지 않음.
+참조:https://okky.kr/article/845193</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,38 +474,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,6 +1489,50 @@
         <a:xfrm>
           <a:off x="1489187" y="87802352"/>
           <a:ext cx="4782292" cy="4517574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>537553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7211786</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3459697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569BDD68-7F2F-4EB7-88E8-B8A83C7B028A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="92884696"/>
+          <a:ext cx="7202715" cy="2922144"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1748,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1828,28 +1887,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="38">
         <v>44173</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1926,30 +1985,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="38">
         <v>44187</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="38"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2049,90 +2108,96 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="29">
         <v>44190</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36" t="s">
-        <v>52</v>
+      <c r="A27" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="38">
         <v>44193</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="31">
+        <v>44193</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="32">
-        <v>44193</v>
-      </c>
-      <c r="C29" s="13" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33" t="s">
+      <c r="B30" s="33">
+        <v>44195</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="34">
+    </row>
+    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="34">
         <v>44195</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="33" t="s">
+      <c r="C31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="35">
+    </row>
+    <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="35">
         <v>44195</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="39" spans="2:3" ht="187" x14ac:dyDescent="0.45">
+      <c r="C39" s="36" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="136" x14ac:dyDescent="0.45">
-      <c r="B32" s="21">
-        <v>44174</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
@@ -2144,6 +2209,11 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148C5F3-9671-4F89-AC4B-E770B11A1248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F874DE5-22E4-48A2-8F82-5A27E76C4C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="110" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,20 @@
   <si>
     <t>즐겨찾기 버튼 구현 중 눌렀을때 스타일 바뀌지 않음.
 참조:https://okky.kr/article/845193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_4일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. select COUNT(*) from my_stock where stock_name ='symbol' 로 검색한 주식이름이 내 db에 없는경우와 있는경우를 나눠서 별표가 표현되게끔 화면 구현
+2. 문자열안에 따옴표 포함시키고싶을때 "\'": 백슬래쉬 따옴표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별표 누르면 회색 빨강색으로 바뀌게
+하고싶은데 아직 구현 못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +505,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,6 +1553,50 @@
         <a:xfrm>
           <a:off x="1487714" y="92884696"/>
           <a:ext cx="7202715" cy="2922144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28044</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>879929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5246213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCB720-76B1-4F56-9AF0-B995D9302368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1506687" y="96774000"/>
+          <a:ext cx="5218169" cy="4343952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1887,28 +1951,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="40">
         <v>44173</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1985,30 +2049,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="40">
         <v>44187</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="37"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2119,30 +2183,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="40">
         <v>44193</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2187,11 +2251,22 @@
       <c r="C32" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="21"/>
-    </row>
-    <row r="39" spans="2:3" ht="187" x14ac:dyDescent="0.45">
+      <c r="D32" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="37">
+        <v>44195</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="187" x14ac:dyDescent="0.45">
       <c r="C39" s="36" t="s">
         <v>58</v>
       </c>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F874DE5-22E4-48A2-8F82-5A27E76C4C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E293FE5-EB44-4A92-9645-47509BF72435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="110" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="440" windowWidth="14730" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,7 +319,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- (10일차) 추후 값들 추가할 것
+    <t>13_3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 버튼 구현 중 눌렀을때 스타일 바뀌지 않음.
+참조:https://okky.kr/article/845193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_4일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. select COUNT(*) from my_stock where stock_name ='symbol' 로 검색한 주식이름이 내 db에 없는경우와 있는경우를 나눠서 별표가 표현되게끔 화면 구현
+2. 문자열안에 따옴표 포함시키고싶을때 "\'": 백슬래쉬 따옴표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별표 누르면 회색 빨강색으로 바뀌게
+하고싶은데 아직 구현 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-  추후 값들 추가할 것
 - 오라클/DB연결하는 방법?
 - 테이블 구성?
 - 크롤링?
@@ -333,26 +356,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13_3일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기 버튼 구현 중 눌렀을때 스타일 바뀌지 않음.
-참조:https://okky.kr/article/845193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_4일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. select COUNT(*) from my_stock where stock_name ='symbol' 로 검색한 주식이름이 내 db에 없는경우와 있는경우를 나눠서 별표가 표현되게끔 화면 구현
-2. 문자열안에 따옴표 포함시키고싶을때 "\'": 백슬래쉬 따옴표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별표 누르면 회색 빨강색으로 바뀌게
-하고싶은데 아직 구현 못함</t>
+    <t>14_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 구현: 이게 뭐라고 4시간을 하냐
+1. html &lt;button&gt;태그는 기본적으로 submit type이다. Type은 submit, button, reset 3가지로 정의할 수 있으며 
+submit 에 경로를 설정해주지 않으면 404 오류를 띄운다.
+2. get 방식 vs post 방식:
+get 방식은 주소 표시줄에 나타나며 256~ 4096바이트 데이터를 서버로 전송한다. 입력한 내용이 노출되기 때문에
+보안상 민감한 경우 사용하지않는다. 주소줄에는 ?name=value&amp;name=value 형태로 나타난다.
+post 방식은 입력된 내용은 크기에 제한 받지않고 내용이 노출되지 않기 때문에 회원가입 로그인 등에 사용한다.
+*** 엔터키로 검색하는건 아직 구현못함 : 
+input하고 enter클릭하면 바로 action을 통해 어디로 넘어가는 것 같은데 모르겠다. 오류목록 참조
+=&gt; 해결완료 : input 태그엔 엔터키를 누를시 자동으로 submit 하는 기능이 있어서 그걸 강제로 막은 후 검색기능함수가 구현되도록 했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,32 +520,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,39 +1584,127 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28044</xdr:colOff>
+      <xdr:colOff>18972</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>879929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5246213</xdr:colOff>
+      <xdr:rowOff>834572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5237141</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5178524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCB720-76B1-4F56-9AF0-B995D9302368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1497615" y="96728643"/>
+          <a:ext cx="5218169" cy="4343952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCB720-76B1-4F56-9AF0-B995D9302368}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1506687" y="96774000"/>
-          <a:ext cx="5218169" cy="4343952"/>
+      <xdr:rowOff>2122714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7202715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3379092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4515FC-0C7E-4D5D-BEC5-18ACE83088B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478644" y="103214714"/>
+          <a:ext cx="7202714" cy="1256378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4816929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6359070</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2905717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B19BA2-FD59-4E49-9070-7DA080B78CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505856" y="105908929"/>
+          <a:ext cx="6331857" cy="3286717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1954,25 +2062,25 @@
       <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="41">
         <v>44173</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2052,26 +2160,26 @@
       <c r="A15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44187</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
@@ -2186,27 +2294,27 @@
       <c r="A27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="41">
         <v>44193</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2243,36 +2351,63 @@
     </row>
     <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="35">
         <v>44195</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="B33" s="36">
+        <v>44195</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="41">
+        <v>44196</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="44"/>
+    </row>
+    <row r="39" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C39" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="37">
-        <v>44195</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="187" x14ac:dyDescent="0.45">
-      <c r="C39" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
@@ -2284,11 +2419,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E293FE5-EB44-4A92-9645-47509BF72435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA730B14-ACC7-405D-BC90-242ECB018170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="440" windowWidth="14730" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="200" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,14 @@
 *** 엔터키로 검색하는건 아직 구현못함 : 
 input하고 enter클릭하면 바로 action을 통해 어디로 넘어가는 것 같은데 모르겠다. 오류목록 참조
 =&gt; 해결완료 : input 태그엔 엔터키를 누를시 자동으로 submit 하는 기능이 있어서 그걸 강제로 막은 후 검색기능함수가 구현되도록 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 날짜 현재 날짜 출력되도록 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,27 +537,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1982,7 +1994,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2059,28 +2071,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="42">
         <v>44173</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2157,30 +2169,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="42">
         <v>44187</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2291,30 +2303,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="42">
         <v>44193</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2375,22 +2387,33 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="42">
         <v>44196</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="47">
+        <v>44196</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="C39" s="38" t="s">
@@ -2399,6 +2422,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B34:B35"/>
@@ -2409,16 +2442,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA730B14-ACC7-405D-BC90-242ECB018170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61A732-E7B9-4DAB-8B0E-79F58EDE2328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="200" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5390" yWindow="60" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,20 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-  추후 값들 추가할 것
-- 오라클/DB연결하는 방법?
-- 테이블 구성?
-- 크롤링?
-- html date함수로 날짜 추가
-- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
-- 내 주식 이율 계산기
-- 검색기능
-- 검색 했을때 없을 경우 : 되돌아가기
-- 자세히에서 검색 버튼 추가
-- 즐겨찾기 버튼 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14_1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +364,17 @@
   </si>
   <si>
     <t>상단 날짜 현재 날짜 출력되도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-  추후 값들 추가할 것
+- 테이블 구성?
+- 크롤링?
+- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
+- 내 주식 이율 계산기
+- 검색 했을때 없을 경우 : 되돌아가기
+- 자세히에서 검색 버튼 추가
+- 즐겨찾기 버튼 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,34 +531,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1993,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2071,28 +2068,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>44173</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="44"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2169,30 +2166,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="43">
         <v>44187</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="44"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="44"/>
-      <c r="B17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2303,30 +2300,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <v>44193</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2387,41 +2384,51 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="43">
+        <v>44196</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="42">
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="45"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="40">
         <v>44196</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="43"/>
-    </row>
-    <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="43"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="39" t="s">
+      <c r="C36" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="47">
-        <v>44196</v>
-      </c>
-      <c r="C36" s="12" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="C39" s="39" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="C39" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="A15:A17"/>
@@ -2432,16 +2439,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61A732-E7B9-4DAB-8B0E-79F58EDE2328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC974BB-E36D-484E-85BF-878FE6CDF103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5390" yWindow="60" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10460" yWindow="2510" windowWidth="21580" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,7 +374,28 @@
 - 내 주식 이율 계산기
 - 검색 했을때 없을 경우 : 되돌아가기
 - 자세히에서 검색 버튼 추가
-- 즐겨찾기 버튼 추가</t>
+- 즐겨찾기 버튼 추가
+- css 파일 따로정리하기 - 상속처리
+- 로그인 기능 구현하기
+- 장고식으로 클릭 이벤트 구현하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crudnote app 제거 (쓰이는곳 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stocks 로고 클릭시 메인 화면으로 돌아가도록 구현
+&lt;a href="{% url [urls.py에서 지정한 이름]%}"
+=&gt; 이젠 복잡하게 온클릭 이벤트 설정해서 자바스크립트로 구현할 필요 없다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,30 +555,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,6 +1744,50 @@
         <a:xfrm>
           <a:off x="1505856" y="105908929"/>
           <a:ext cx="6331857" cy="3286717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>819151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3417847</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1574801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6151C2-1AE4-4302-BD56-8BEF3FDA03F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492250" y="112604551"/>
+          <a:ext cx="3405147" cy="755650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1988,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2068,28 +2142,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="46">
         <v>44173</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2166,30 +2240,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="46">
         <v>44187</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2300,30 +2374,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="46">
         <v>44193</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2384,41 +2458,74 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="46">
         <v>44196</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="39">
         <v>44196</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="C39" s="39" t="s">
+    <row r="37" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="40">
+        <v>43842</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="40">
+        <v>43842</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="42"/>
+    </row>
+    <row r="40" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C40" s="43" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B34:B35"/>
@@ -2429,16 +2536,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC974BB-E36D-484E-85BF-878FE6CDF103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF08009-2B92-4984-9D28-619142E5B74C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="2510" windowWidth="21580" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9100" yWindow="1500" windowWidth="16350" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,8 +367,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crudnote app 제거 (쓰이는곳 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stocks 로고 클릭시 메인 화면으로 돌아가도록 구현
+&lt;a href="{% url [urls.py에서 지정한 이름]%}"
+=&gt; 이젠 복잡하게 온클릭 이벤트 설정해서 자바스크립트로 구현할 필요 없다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-  추후 값들 추가할 것
-- 테이블 구성?
+- 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
 - 크롤링?
 - 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
 - 내 주식 이율 계산기
@@ -381,21 +399,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15_1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crudnote app 제거 (쓰이는곳 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15_2일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stocks 로고 클릭시 메인 화면으로 돌아가도록 구현
-&lt;a href="{% url [urls.py에서 지정한 이름]%}"
-=&gt; 이젠 복잡하게 온클릭 이벤트 설정해서 자바스크립트로 구현할 필요 없다!</t>
+    <t>15_3일차</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracleWork.py 내 즐겨찾기 추가/삭제 함수 구현: 
+insert into my_stock values('qcom') 
+delete from my_stock where stock_name='qcom'
+=&gt; ☆db.commit()을 해줍시다☆
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,6 +1799,50 @@
         <a:xfrm>
           <a:off x="1492250" y="112604551"/>
           <a:ext cx="3405147" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3530600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7224498</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4598B740-15D7-4217-90ED-9D643A710E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="113408048"/>
+          <a:ext cx="3693898" cy="2867867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2488,30 +2543,44 @@
     </row>
     <row r="37" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="40">
         <v>43842</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="40">
         <v>43842</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="40">
+        <v>43842</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="173.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C41" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="D38" s="42"/>
-    </row>
-    <row r="40" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="C40" s="43" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF08009-2B92-4984-9D28-619142E5B74C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC035577-D093-4FE7-A169-0F669096F338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1500" windowWidth="16350" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9230" yWindow="1250" windowWidth="16350" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,20 @@
 =&gt; ☆db.commit()을 해줍시다☆
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) redirect vs render 차이:
+redirect는 url로 이동하고 이에 맞는 views가 실행된다. render는 템플릿을 불러온다.
+2) redirect사용법
+def my_view(request):
+    ...
+    return redirect('view-name')             # view_name 사용
+    # return redirect('/some/url/')                  # 상대 경로 
+    # return redirect('https://example.com/')# 절대 경로 </t>
   </si>
 </sst>
 </file>
@@ -450,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +581,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2197,28 +2214,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="47">
         <v>44173</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2295,30 +2312,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="47">
         <v>44187</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2429,30 +2446,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="47">
         <v>44193</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="48"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2513,22 +2530,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="47">
         <v>44196</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2542,10 +2559,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="41">
         <v>43842</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2553,33 +2570,46 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="41">
         <v>43842</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="41">
         <v>43842</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="173.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="C41" s="43" t="s">
+    <row r="40" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="41">
+        <v>43843</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="1:4" ht="173.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="40"/>
+      <c r="D41" s="43"/>
+    </row>
+    <row r="42" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C42" s="44" t="s">
         <v>71</v>
       </c>
     </row>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC035577-D093-4FE7-A169-0F669096F338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE2DBB-C1D0-42AD-AE8A-B5DCA2136551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9230" yWindow="1250" windowWidth="16350" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="740" windowWidth="14990" windowHeight="14450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,14 +402,6 @@
     <t>15_3일차</t>
   </si>
   <si>
-    <t xml:space="preserve">oracleWork.py 내 즐겨찾기 추가/삭제 함수 구현: 
-insert into my_stock values('qcom') 
-delete from my_stock where stock_name='qcom'
-=&gt; ☆db.commit()을 해줍시다☆
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16_1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +414,61 @@
     return redirect('view-name')             # view_name 사용
     # return redirect('/some/url/')                  # 상대 경로 
     # return redirect('https://example.com/')# 절대 경로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">views.py 수정: 
+주식 자세히 화면에서 "여기클릭" 버튼을 누르면 goStockPage로 이동한다.
+기존의 있는 코드에서 예외처리하여 symbol값이 없을 경우 (mainpage에서 값을 눌러 클릭한게 아니라면)
+mainpageurl로 이동하도록 설정하였다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리 자세히
+delete할건지 insert할건지 구별
+post로 뭘 쏴줘야 하지않을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">oracleWork.py 내 즐겨찾기 추가/삭제 함수 구현: 
+미완성 상태로 현재는 "QCOM"이 삽입 삭제되지만
+나중엔 해당하는 주식이 삽입 또는 삭제되게
+수정할 예정
+insert into my_stock values('qcom') 
+delete from my_stock where stock_name='qcom'
+=&gt; ☆db.commit()을 해줍시다☆
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_2일차</t>
+  </si>
+  <si>
+    <t>지금 상태:
+1) "여기" 버튼을 누르면 views.py [goMainPage]함수가 실행된다.
+ 예외처리를 통해서 db에 같은 값이 있다면 delete되고 없다면 insert된다.
+2) 이후 메인페이지로 돌아간다.
+해야할것:
+ 1) post방식이든 뭐든 통해 "주식이름"을 들고와야한다. 그래야 메인페이지가 아닌 goStockpage로 돌아갈수 있다.
+ 2) 예외처리를 좀 더 자세히 해야한다. 수많은 오류 중에 딱 그 오류가 났을때 except문이 실행되도록 해야한다.
+ 3) 이동할 url도 바꾸고 insertInto_my_stock() / delete_my_stock() 함수도 퀄컴의 값을 삽입 삭제 하는게 아닌
+    파라미터를 설정하여 요청된 값을 삽입 삭제하도록 해야한다.
+1) 방법: A태그 자바스크립트 활용 or get방식으로 넘기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. stockPage html 수정:
+ form 객체를 집어넣고 href를 다음과 같이 설정하여 클릭하면 폼 내의 히든값이 전달되고
+ views.py 내 stockPage함수가 실행되도록 설정하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. views.py 설정
+기존의 goStockPage함수는 메인화면에서의 요청만을 지웠했으나 즐겨찾기 버튼을 눌렀을 때도
+함수가 실행되야했다. 다만 symbol값을 따로 들고 오지 않아 api요청을 할때 에러가 발생했기 때문에 이 경우를
+try except문으로 처리하여 template에서 보낸 폼값을 통해 symbolR값을 받아서 다시 요청하도록 했다.
+이외에도 symbolR값을  insertInto_my_stock() / delete_my_stock() 매개변수로 설정하여 db값을 삽입 / 삭제되도록 설정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,9 +628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,6 +1904,138 @@
         <a:xfrm>
           <a:off x="5010150" y="113408048"/>
           <a:ext cx="3693898" cy="2867867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>871726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AA4B59-4F63-48AB-B2C9-32A69C2D6CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492250" y="118911876"/>
+          <a:ext cx="4006850" cy="3131852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>691593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>263381</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A31E8F8-C1E7-4FC8-9CA0-E5B7502AB185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478642" y="122756736"/>
+          <a:ext cx="7493310" cy="2521615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8162</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1342570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5556865</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F63422C-B5CA-4129-96D2-E55D4ED572D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1486805" y="126618999"/>
+          <a:ext cx="5548703" cy="3615799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2214,28 +2390,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>44173</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="49"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2312,30 +2488,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>44187</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="49"/>
-      <c r="B17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2446,30 +2622,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <v>44193</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2530,22 +2706,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="46">
         <v>44196</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2559,10 +2735,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="40">
         <v>43842</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2570,46 +2746,98 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="40">
         <v>43842</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="40">
         <v>43842</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="42" t="s">
+      <c r="B40" s="40">
+        <v>43843</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="41">
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="40">
         <v>43843</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:4" ht="173.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="40"/>
-      <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="C42" s="44" t="s">
+      <c r="D41" s="42"/>
+    </row>
+    <row r="42" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="40">
+        <v>43843</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="42"/>
+    </row>
+    <row r="43" spans="1:4" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="40">
+        <v>43843</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="40">
+        <v>43843</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="42"/>
+    </row>
+    <row r="45" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="41"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C46" s="43" t="s">
         <v>71</v>
       </c>
     </row>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE2DBB-C1D0-42AD-AE8A-B5DCA2136551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AA3AC-0B6E-449C-842F-AF9EB3F35D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="740" windowWidth="14990" windowHeight="14450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11230" yWindow="3810" windowWidth="16350" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,7 +385,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15_3일차</t>
+  </si>
+  <si>
+    <t>16_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) redirect vs render 차이:
+redirect는 url로 이동하고 이에 맞는 views가 실행된다. render는 템플릿을 불러온다.
+2) redirect사용법
+def my_view(request):
+    ...
+    return redirect('view-name')             # view_name 사용
+    # return redirect('/some/url/')                  # 상대 경로 
+    # return redirect('https://example.com/')# 절대 경로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">views.py 수정: 
+주식 자세히 화면에서 "여기클릭" 버튼을 누르면 goStockPage로 이동한다.
+기존의 있는 코드에서 예외처리하여 symbol값이 없을 경우 (mainpage에서 값을 눌러 클릭한게 아니라면)
+mainpageurl로 이동하도록 설정하였다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">oracleWork.py 내 즐겨찾기 추가/삭제 함수 구현: 
+미완성 상태로 현재는 "QCOM"이 삽입 삭제되지만
+나중엔 해당하는 주식이 삽입 또는 삭제되게
+수정할 예정
+insert into my_stock values('qcom') 
+delete from my_stock where stock_name='qcom'
+=&gt; ☆db.commit()을 해줍시다☆
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_2일차</t>
+  </si>
+  <si>
+    <t>1. stockPage html 수정:
+ form 객체를 집어넣고 href를 다음과 같이 설정하여 클릭하면 폼 내의 히든값이 전달되고
+ views.py 내 stockPage함수가 실행되도록 설정하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. views.py 설정
+기존의 goStockPage함수는 메인화면에서의 요청만을 지웠했으나 즐겨찾기 버튼을 눌렀을 때도
+함수가 실행되야했다. 다만 symbol값을 따로 들고 오지 않아 api요청을 할때 에러가 발생했기 때문에 이 경우를
+try except문으로 처리하여 template에서 보낸 폼값을 통해 symbolR값을 받아서 다시 요청하도록 했다.
+이외에도 symbolR값을  insertInto_my_stock() / delete_my_stock() 매개변수로 설정하여 db값을 삽입 / 삭제되도록 설정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-  추후 값들 추가할 것
+-예외처리 자세히
+-즐겨찾기 이쁘게 html 알맞게 수정
 - 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
 - 크롤링?
 - 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
@@ -399,75 +454,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15_3일차</t>
-  </si>
-  <si>
-    <t>16_1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) redirect vs render 차이:
-redirect는 url로 이동하고 이에 맞는 views가 실행된다. render는 템플릿을 불러온다.
-2) redirect사용법
-def my_view(request):
-    ...
-    return redirect('view-name')             # view_name 사용
-    # return redirect('/some/url/')                  # 상대 경로 
-    # return redirect('https://example.com/')# 절대 경로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">views.py 수정: 
-주식 자세히 화면에서 "여기클릭" 버튼을 누르면 goStockPage로 이동한다.
-기존의 있는 코드에서 예외처리하여 symbol값이 없을 경우 (mainpage에서 값을 눌러 클릭한게 아니라면)
-mainpageurl로 이동하도록 설정하였다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외처리 자세히
-delete할건지 insert할건지 구별
-post로 뭘 쏴줘야 하지않을까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">oracleWork.py 내 즐겨찾기 추가/삭제 함수 구현: 
-미완성 상태로 현재는 "QCOM"이 삽입 삭제되지만
-나중엔 해당하는 주식이 삽입 또는 삭제되게
-수정할 예정
-insert into my_stock values('qcom') 
-delete from my_stock where stock_name='qcom'
-=&gt; ☆db.commit()을 해줍시다☆
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_2일차</t>
-  </si>
-  <si>
-    <t>지금 상태:
-1) "여기" 버튼을 누르면 views.py [goMainPage]함수가 실행된다.
- 예외처리를 통해서 db에 같은 값이 있다면 delete되고 없다면 insert된다.
-2) 이후 메인페이지로 돌아간다.
-해야할것:
- 1) post방식이든 뭐든 통해 "주식이름"을 들고와야한다. 그래야 메인페이지가 아닌 goStockpage로 돌아갈수 있다.
- 2) 예외처리를 좀 더 자세히 해야한다. 수많은 오류 중에 딱 그 오류가 났을때 except문이 실행되도록 해야한다.
- 3) 이동할 url도 바꾸고 insertInto_my_stock() / delete_my_stock() 함수도 퀄컴의 값을 삽입 삭제 하는게 아닌
-    파라미터를 설정하여 요청된 값을 삽입 삭제하도록 해야한다.
-1) 방법: A태그 자바스크립트 활용 or get방식으로 넘기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. stockPage html 수정:
- form 객체를 집어넣고 href를 다음과 같이 설정하여 클릭하면 폼 내의 히든값이 전달되고
- views.py 내 stockPage함수가 실행되도록 설정하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. views.py 설정
-기존의 goStockPage함수는 메인화면에서의 요청만을 지웠했으나 즐겨찾기 버튼을 눌렀을 때도
-함수가 실행되야했다. 다만 symbol값을 따로 들고 오지 않아 api요청을 할때 에러가 발생했기 때문에 이 경우를
-try except문으로 처리하여 template에서 보낸 폼값을 통해 symbolR값을 받아서 다시 요청하도록 했다.
-이외에도 symbolR값을  insertInto_my_stock() / delete_my_stock() 매개변수로 설정하여 db값을 삽입 / 삭제되도록 설정했다.</t>
+    <t>16_3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockPage 즐겨찾기 로고 (star1, star2) css 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,26 +631,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2312,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2390,28 +2381,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="46">
         <v>44173</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2488,30 +2479,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="46">
         <v>44187</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2622,30 +2613,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="46">
         <v>44193</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2706,22 +2697,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="46">
         <v>44196</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2759,90 +2750,98 @@
     </row>
     <row r="39" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="40">
         <v>43842</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="40">
         <v>43843</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="40">
         <v>43843</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="40">
         <v>43843</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="40">
         <v>43843</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D43" s="42"/>
     </row>
-    <row r="44" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="40">
         <v>43843</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="41"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="42"/>
     </row>
-    <row r="46" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="C46" s="43" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="A15:A17"/>
@@ -2853,16 +2852,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AA3AC-0B6E-449C-842F-AF9EB3F35D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B373AD-5867-4BEE-A3AE-FDEBD194468D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11230" yWindow="3810" windowWidth="16350" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,27 +438,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>16_3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockPage 즐겨찾기 로고 (star1, star2) css 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-  추후 값들 추가할 것
 -예외처리 자세히
--즐겨찾기 이쁘게 html 알맞게 수정
 - 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
 - 크롤링?
 - 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
 - 내 주식 이율 계산기
 - 검색 했을때 없을 경우 : 되돌아가기
 - 자세히에서 검색 버튼 추가
-- 즐겨찾기 버튼 추가
 - css 파일 따로정리하기 - 상속처리
 - 로그인 기능 구현하기
 - 장고식으로 클릭 이벤트 구현하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16_3일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stockPage 즐겨찾기 로고 (star1, star2) css 수정</t>
+    <t>2020-01_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색했을때 해당 주식명 없으면 메시지박스나 모달창 띄우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,26 +641,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2304,7 +2314,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2381,28 +2391,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="46">
         <v>44173</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2479,30 +2489,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="46">
         <v>44187</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2613,30 +2623,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="46">
         <v>44193</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2697,22 +2707,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="44" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="46">
         <v>44196</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="48"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2725,7 +2735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="41" t="s">
         <v>67</v>
       </c>
@@ -2809,29 +2819,45 @@
     </row>
     <row r="44" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="40">
         <v>43843</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="42"/>
+    </row>
+    <row r="45" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="C46" s="43" t="s">
         <v>81</v>
-      </c>
-      <c r="D44" s="42"/>
-    </row>
-    <row r="45" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="C46" s="43" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B34:B35"/>
@@ -2842,16 +2868,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B373AD-5867-4BEE-A3AE-FDEBD194468D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CF6BA-AC6C-414D-8C7E-5D9493080B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="130" yWindow="0" windowWidth="16350" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-  추후 값들 추가할 것
+    <t>17_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-html 수정
+-  추후 값들 추가할 것
 -예외처리 자세히
 - 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
 - 크롤링?
@@ -460,15 +465,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-01_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17_1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색했을때 해당 주식명 없으면 메시지박스나 모달창 띄우기</t>
+    <t>2020-01_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색했을때 해당 주식명 없을때 나오는 화면 구성 (noSearchMsg.html 추가 / views.py if문 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,26 +642,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2037,6 +2038,94 @@
         <a:xfrm>
           <a:off x="1486805" y="126618999"/>
           <a:ext cx="5548703" cy="3615799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5923753</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444166</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4033952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFCAB2F-1FE7-4A71-8A32-45457E85B5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402396" y="130020786"/>
+          <a:ext cx="4598770" cy="3997666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5323097</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2721429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB25C3C-CB79-4095-A631-2B2B2B630A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514930" y="130338285"/>
+          <a:ext cx="5286810" cy="2367644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,7 +2403,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2391,28 +2480,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="46">
         <v>44173</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2489,30 +2578,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="46">
         <v>44187</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2623,30 +2712,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="46">
         <v>44193</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="48"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2707,22 +2796,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="46">
         <v>44196</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2829,25 +2918,35 @@
       </c>
       <c r="D44" s="42"/>
     </row>
-    <row r="45" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>82</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="42"/>
     </row>
-    <row r="46" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="C46" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="A15:A17"/>
@@ -2858,16 +2957,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CF6BA-AC6C-414D-8C7E-5D9493080B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B815E2-3312-4DF4-A53C-A217A580906E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="0" windowWidth="16350" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10130" yWindow="3100" windowWidth="15850" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020-01_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색했을때 해당 주식명 없을때 나오는 화면 구성 (noSearchMsg.html 추가 / views.py if문 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-html 수정
 -  추후 값들 추가할 것
 -예외처리 자세히
@@ -457,19 +465,33 @@
 - 크롤링?
 - 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
 - 내 주식 이율 계산기
-- 검색 했을때 없을 경우 : 되돌아가기
 - 자세히에서 검색 버튼 추가
 - css 파일 따로정리하기 - 상속처리
 - 로그인 기능 구현하기
-- 장고식으로 클릭 이벤트 구현하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색했을때 해당 주식명 없을때 나오는 화면 구성 (noSearchMsg.html 추가 / views.py if문 추가)</t>
+- 장고식으로 클릭 이벤트 구현하기
+-로그인구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장고 템플릿 상속처리(stockBar.html 생성)
+화면에서 템플릿 공통 성분들은 따로 분리하여 다음과 같이 상속 시킬 수 있다.
+1) 상속 할 (아빠)객체:
+{% block content %} 
+이빠객체를 상속할 템플릿에서 구현해야하는 영역
+{% endblock %}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 아들 객체
+상단에 {% extends "아빠객체.html" %} 작성 후
+{% block content %} 
+상속 없이 아들객체 단독으로 구현하는 것 구현
+{% endblock %}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,29 +661,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,6 +2166,94 @@
         <a:xfrm>
           <a:off x="1514930" y="130338285"/>
           <a:ext cx="5286810" cy="2367644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1360714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6561367</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4056665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCAF6D4-833B-4832-A2B7-2A3981207CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524001" y="135418285"/>
+          <a:ext cx="6516009" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1093633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5228104</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4542827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6168ED-02C4-47E2-A907-70D4AFB30B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514928" y="139224276"/>
+          <a:ext cx="5191819" cy="3449194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2480,28 +2608,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="52">
         <v>44173</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2578,30 +2706,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="52">
         <v>44187</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
@@ -2712,30 +2840,30 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="52">
         <v>44193</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2796,22 +2924,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="52">
         <v>44196</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -2923,20 +3051,54 @@
         <v>81</v>
       </c>
       <c r="B45" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="44">
+        <v>43849</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="45"/>
+    </row>
+    <row r="47" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="46">
+        <v>43849</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="1:4" ht="204" x14ac:dyDescent="0.45">
+      <c r="C48" s="49" t="s">
         <v>84</v>
-      </c>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="C46" s="43" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B34:B35"/>
@@ -2947,16 +3109,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B815E2-3312-4DF4-A53C-A217A580906E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB57192-C4E1-4316-B988-FC0E5D47DF54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10130" yWindow="3100" windowWidth="15850" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="0" windowWidth="15850" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>18_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장고 템플릿 상속처리(stockBar.html 생성)
+화면에서 템플릿 공통 성분들은 따로 분리하여 다음과 같이 상속 시킬 수 있다.
+1) 상속 할 (아빠)객체:
+{% block content %} 
+이빠객체를 상속할 템플릿에서 구현해야하는 영역
+{% endblock %}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 아들 객체
+상단에 {% extends "아빠객체.html" %} 작성 후
+{% block content %} 
+상속 없이 아들객체 단독으로 구현하는 것 구현
+{% endblock %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-html 수정
 -  추후 값들 추가할 것
 -예외처리 자세히
@@ -466,32 +488,14 @@
 - 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
 - 내 주식 이율 계산기
 - 자세히에서 검색 버튼 추가
-- css 파일 따로정리하기 - 상속처리
 - 로그인 기능 구현하기
 - 장고식으로 클릭 이벤트 구현하기
--로그인구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18_1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">장고 템플릿 상속처리(stockBar.html 생성)
-화면에서 템플릿 공통 성분들은 따로 분리하여 다음과 같이 상속 시킬 수 있다.
-1) 상속 할 (아빠)객체:
-{% block content %} 
-이빠객체를 상속할 템플릿에서 구현해야하는 영역
-{% endblock %}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 아들 객체
-상단에 {% extends "아빠객체.html" %} 작성 후
-{% block content %} 
-상속 없이 아들객체 단독으로 구현하는 것 구현
-{% endblock %}</t>
+-로그인구현
+- ajax구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,29 +683,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2528,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2611,25 +2624,25 @@
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="55">
         <v>44173</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="54"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="54"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -2709,26 +2722,26 @@
       <c r="A15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="55">
         <v>44187</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="53"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="54"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="54"/>
-      <c r="B17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
@@ -2843,27 +2856,27 @@
       <c r="A27" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="55">
         <v>44193</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="54"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
@@ -2924,22 +2937,22 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="55">
         <v>44196</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="38" t="s">
@@ -3060,35 +3073,55 @@
     </row>
     <row r="46" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="44">
         <v>43849</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="46">
         <v>43849</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="50">
+        <v>43850</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="3:3" ht="204" x14ac:dyDescent="0.45">
+      <c r="C49" s="52" t="s">
         <v>87</v>
-      </c>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="C48" s="49" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="A15:A17"/>
@@ -3099,16 +3132,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB57192-C4E1-4316-B988-FC0E5D47DF54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B2FFA2-12DA-4D06-8908-EE813C9D15E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="0" windowWidth="15850" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13370" yWindow="2870" windowWidth="17060" windowHeight="13210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="~19.1" sheetId="1" r:id="rId1"/>
+    <sheet name="master" sheetId="4" r:id="rId2"/>
+    <sheet name="splite.ver" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,10 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-01_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검색했을때 해당 주식명 없을때 나오는 화면 구성 (noSearchMsg.html 추가 / views.py if문 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +475,27 @@
 {% block content %} 
 상속 없이 아들객체 단독으로 구현하는 것 구현
 {% endblock %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splite를 사용하는 방식(장고에서 사용하는 모델방식)과 oracle을 사용하는 방식을
+구분하기 위해 브랜치를 생성할거다. 브랜치명 splite.ver
+1) 브랜치생성 : git branch [브랜치명]
+2) 브랜치 변환 : git checkout [바꿀 브랜치명] 
+3) 원격 저장소에 새로운 브랜치 생성: git push --set-upstream [나눠질 브랜치] [추가할 브랜치명]
+ ex) git push --set-upstream origin splite.ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,11 +510,16 @@
 - 로그인 기능 구현하기
 - 장고식으로 클릭 이벤트 구현하기
 -로그인구현
-- ajax구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_1일차</t>
+- ajax구현
+- 앱별로 분류해보기 (https://ssungkang.tistory.com/entry/django-%ED%9A%A8%EC%9C%A8%EC%A0%81%EC%9D%B8-url-%EA%B4%80%EB%A6%AC) 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원가입 기능을 위한 account 앱생성
+1) python manage.py startapp accounts 명령어로 앱 생성
+2) settings.py &gt; INSTALLED_APPS &gt; 'accounts.apps.AccountsConfig' 추가
+2, 로그인 구현을 위한 페이지 생성 login.html , signup.html 및 화면 구현
+3. accounts.views.py signup , login 함수 생성 및 url 매핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,15 +563,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -557,40 +575,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,97 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -699,22 +612,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,6 +2168,1464 @@
         <a:xfrm>
           <a:off x="1514928" y="139224276"/>
           <a:ext cx="5191819" cy="3449194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2319893</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>927100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4884309" cy="2938217"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10C4FAC-2A22-413D-9C35-A747B4C87D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3798536" y="2868386"/>
+          <a:ext cx="4884309" cy="2938217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>860436</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6172201" cy="4905208"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F7C50C-1564-46C3-8A4F-F034ED020AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504042" y="8625579"/>
+          <a:ext cx="6172201" cy="4905208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>868137</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6359073" cy="4309843"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C69304-6BAD-464F-B6FD-556B7D595142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487713" y="15046780"/>
+          <a:ext cx="6359073" cy="4309843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6772</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4319087" cy="4862285"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61120157-EC11-4C6F-8F5B-6A796052D40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485415" y="19703143"/>
+          <a:ext cx="4319087" cy="4862285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6427143" cy="4861642"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DF4BD7-6F20-45DF-BBE6-7D0AA6516E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510357" y="25536071"/>
+          <a:ext cx="6427143" cy="4861642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4074584" cy="3975099"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABEAF74-C619-44A6-8772-DB83B717262A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487715" y="31015214"/>
+          <a:ext cx="4074584" cy="3975099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807357</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>253783</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7232564" cy="4091431"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C9C2E4-B7B1-4210-BDD2-C6E52B3FF4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469571" y="36593926"/>
+          <a:ext cx="7232564" cy="4091431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4340516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7202714" cy="2583790"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106E3A5D-6D7A-4E12-A3DC-4D74FBC73809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478644" y="40680659"/>
+          <a:ext cx="7202714" cy="2583790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24939</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>662214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4827495" cy="3356817"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A7FF96-DDF4-45D9-945F-6F7401F59F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1503582" y="43923857"/>
+          <a:ext cx="4827495" cy="3356817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>245882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4280893" cy="2770824"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B73DE96-6983-4F60-8E96-0AA97D849439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="47517096"/>
+          <a:ext cx="4280893" cy="2770824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>480786</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5477639" cy="352474"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521B9751-7049-427B-9C36-75628394AD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505857" y="50836286"/>
+          <a:ext cx="5477639" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>671286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5820587" cy="1810003"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E04C6E-3CB3-4A14-935E-DD2B9058449D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="51861357"/>
+          <a:ext cx="5820587" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>444501</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5842000" cy="1372092"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1704EF24-102C-434F-A02F-D8079CEEDFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514928" y="54147358"/>
+          <a:ext cx="5842000" cy="1372092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1932214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5639587" cy="1247949"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A92F1EC-8FDB-43B5-96EF-BC8916B55948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="55635071"/>
+          <a:ext cx="5639587" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>815069</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>961571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5206259" cy="4036509"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A9BCFD-94D8-407A-8A80-0C46499D3039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1477283" y="59399714"/>
+          <a:ext cx="5206259" cy="4036509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>564768</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4980214" cy="3540621"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F933B36E-EF95-4FF6-AB24-AA049F61FC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469572" y="64010339"/>
+          <a:ext cx="4980214" cy="3540621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4098483</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3746500" cy="1100980"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D90B216-332E-4CB9-8A59-B421BCC9F166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469572" y="67544054"/>
+          <a:ext cx="3746500" cy="1100980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1315358</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6498609" cy="4691738"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440D2B5A-6474-4070-8B39-8D32D4662C10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1496786" y="69958858"/>
+          <a:ext cx="6498609" cy="4691738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2848429</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3628573" cy="2339475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D04261-2E69-49B5-AD7D-05ACA1EF1585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505856" y="75211215"/>
+          <a:ext cx="3628573" cy="2339475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28328</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>748903</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3881458" cy="3669501"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01737928-2545-4D86-8195-0E9F81FA95EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1506971" y="78309617"/>
+          <a:ext cx="3881458" cy="3669501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31494</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>879923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6581577" cy="4240500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F9E1FE-8A7F-4A4B-BAE7-09F0804D9FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510137" y="82831209"/>
+          <a:ext cx="6581577" cy="4240500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10544</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>653138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4782292" cy="4517574"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A7E101-7071-4074-B5A0-A2AB2F8B77E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1489187" y="87802352"/>
+          <a:ext cx="4782292" cy="4517574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>537553</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7202715" cy="2922144"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B9969E-B5AA-4473-9396-7474BC03D5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487714" y="92884696"/>
+          <a:ext cx="7202715" cy="2922144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18972</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>834572</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5218169" cy="4343952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADEFBA6-EA3F-4282-9C56-BA26680767B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1497615" y="96728643"/>
+          <a:ext cx="5218169" cy="4343952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2122714</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7202714" cy="1256378"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6FF138-64FD-4D38-A830-2E211B42AD5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478644" y="103214714"/>
+          <a:ext cx="7202714" cy="1256378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4816929</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6331857" cy="3286717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952B0858-3BC3-4322-A5AD-E870C49625A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505856" y="105908929"/>
+          <a:ext cx="6331857" cy="3286717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>819151</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3405147" cy="755650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2A69B7-2684-4CE3-B95E-95356F73AC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1491343" y="111853437"/>
+          <a:ext cx="3405147" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3530600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22448</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3693898" cy="2869681"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F28E0-317B-4D5A-9EA8-4CA8D9C8DB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5009243" y="112653305"/>
+          <a:ext cx="3693898" cy="2869681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>871726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4006850" cy="3131852"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C382E0E1-869C-423A-AE2A-64393F269494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1491343" y="118156226"/>
+          <a:ext cx="4006850" cy="3131852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>691593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7493310" cy="2521615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E664EF1-FCFD-434F-88AA-82C49D69B9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478642" y="121976593"/>
+          <a:ext cx="7493310" cy="2521615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8162</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1342570</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5548703" cy="3615799"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78170B12-D776-4F08-8A13-24EBA41F9DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1486805" y="125838856"/>
+          <a:ext cx="5548703" cy="3615799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5923753</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4598770" cy="3997666"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E825595F-49AB-40E0-A5EC-A508D9DC7986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402396" y="130020786"/>
+          <a:ext cx="4598770" cy="3997666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5286810" cy="2367644"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="그림 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABBD081-B8A8-4D74-80A9-A736F6589DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514930" y="130338285"/>
+          <a:ext cx="5286810" cy="2367644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1360714</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6516009" cy="2695951"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114CE709-F86E-4E9F-897C-D1F529557460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524001" y="135418285"/>
+          <a:ext cx="6516009" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1093633</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5191819" cy="3449194"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="그림 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DBA810-283E-4C40-8EA5-F86BFE9ADBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514928" y="139224276"/>
+          <a:ext cx="5191819" cy="3449194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807669</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1832428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4246952</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B73C978-7655-4A9E-8EB3-D8AF1507B1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469883" y="2050142"/>
+          <a:ext cx="4255712" cy="2922474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4317999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1843543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1232984</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4689929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDB2EEF-E61A-4450-9DB8-B0F091DFBD43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5796642" y="2061257"/>
+          <a:ext cx="4144913" cy="2846386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,593 +3902,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.9140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="12">
         <v>44157</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>44160</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="306" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="306" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>44165</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>44172</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="12">
         <v>44173</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="58"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>44173</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>44173</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>44173</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>44179</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>44179</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>44183</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="12">
         <v>44187</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:5" s="15" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>44187</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="12">
         <v>44188</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17" t="s">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>44188</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="12">
         <v>44188</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="12">
         <v>44188</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="12">
         <v>44188</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="12">
         <v>44188</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="12">
         <v>44189</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="12">
         <v>44190</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="12">
         <v>44193</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="12">
         <v>44193</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="12">
         <v>44195</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="12">
         <v>44195</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="12">
         <v>44195</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="12">
         <v>44195</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="12">
         <v>44196</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="58"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="9">
         <v>44196</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="40">
-        <v>43842</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="12">
+        <v>44208</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="40">
-        <v>43842</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="12">
+        <v>44208</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="40">
-        <v>43842</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="12">
+        <v>44208</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="40">
-        <v>43843</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="12">
+        <v>44209</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="42"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="40">
-        <v>43843</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="12">
+        <v>44209</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="40">
-        <v>43843</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="12">
+        <v>44209</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="42"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="40">
-        <v>43843</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="12">
+        <v>44209</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="40">
-        <v>43843</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="12">
+        <v>44209</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="42"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="43" t="s">
+      <c r="B46" s="12">
+        <v>44215</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="44">
-        <v>43849</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="12">
+        <v>44215</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="45"/>
-    </row>
-    <row r="47" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="46">
-        <v>43849</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" ht="131" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:4" ht="359" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="50">
-        <v>43850</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" spans="3:3" ht="204" x14ac:dyDescent="0.45">
-      <c r="C49" s="52" t="s">
+      <c r="B48" s="12">
+        <v>44216</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="3:4" ht="238" x14ac:dyDescent="0.45">
+      <c r="C49" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="4">
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
   </mergeCells>
@@ -3138,4 +4492,590 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD00AF-B3BA-4094-824D-8296F16B435A}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="10"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="315" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="253" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="374.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44216</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="10"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="315" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="253" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B2FFA2-12DA-4D06-8908-EE813C9D15E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A363D6-F9AF-4BE7-AEFB-2C903B70BB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13370" yWindow="2870" windowWidth="17060" windowHeight="13210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6320" yWindow="820" windowWidth="17060" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~19.1" sheetId="1" r:id="rId1"/>
@@ -3541,46 +3541,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>807669</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1832428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4246952</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B73C978-7655-4A9E-8EB3-D8AF1507B1F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1469883" y="2050142"/>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1451432</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4255712" cy="2922474"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A97952-C7FA-48AC-AE14-0A6D8FF0E157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1469883" y="145805075"/>
           <a:ext cx="4255712" cy="2922474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3589,51 +3579,46 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4317999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1843543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1232984</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4689929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDB2EEF-E61A-4450-9DB8-B0F091DFBD43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5796642" y="2061257"/>
-          <a:ext cx="4144913" cy="2846386"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4245431</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1462547</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4218212" cy="2896722"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442015FF-A826-4A9F-B973-6D6D9343E0EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724074" y="145816190"/>
+          <a:ext cx="4218212" cy="2896722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3900,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4474,12 +4459,25 @@
       </c>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="3:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="C49" s="15" t="s">
+    <row r="49" spans="1:4" ht="343.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="12">
+        <v>44216</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+      <c r="C50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="13"/>
-    </row>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G27:G28"/>
@@ -4787,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4812,18 +4810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="374.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="12">
-        <v>44216</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="13"/>
-    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="374.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -5076,6 +5063,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A363D6-F9AF-4BE7-AEFB-2C903B70BB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AAD2F5-4CA9-4C5D-B053-34FEAD2EEC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="820" windowWidth="17060" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="390" windowWidth="22230" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~19.1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,10 +488,6 @@
 2) 브랜치 변환 : git checkout [바꿀 브랜치명] 
 3) 원격 저장소에 새로운 브랜치 생성: git push --set-upstream [나눠질 브랜치] [추가할 브랜치명]
  ex) git push --set-upstream origin splite.ver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.2일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,6 +516,50 @@
 2) settings.py &gt; INSTALLED_APPS &gt; 'accounts.apps.AccountsConfig' 추가
 2, 로그인 구현을 위한 페이지 생성 login.html , signup.html 및 화면 구현
 3. accounts.views.py signup , login 함수 생성 및 url 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_2일차</t>
+  </si>
+  <si>
+    <t>~19_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리한 작업 : git merge [커밋내역] : 커밋된 내역을 들고와 병합 
+* 브랜치 병합하기 : git merge [브랜치명]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조: https://goddaehee.tistory.com/275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. signup.html 보완
+2. accounts.views.py 보완
+  1)  회원가입을 구현하는데 있어 장고가 제공하는 편리한 라이브러리
+     from django.contrib.auth.models import User
+     from django.contrib import auth 
+    추가 후 signup() 함수 작성
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 위와 같이 코드를 짜고 실행시키면 데이터베이스 스키마에 변화가 발생한다.
+mirgrations는 변화를 감지하고 db가 업데이트 되도록 준비시킨다.
+migrate하면 auth_user 테이블이 생성되고 관리자 계정을 생성할수 있는 상태가 된다 ( craetesuperuser 사용가능 )
+:  run manage.py Task =&gt; mirgrations , migrate 입력
+4. 관리자 계정 생성:
+run manage.py Task -&gt; createsuperuser -&gt; 이름/이메일/패스워드 입력
+관리자명 kwak / 이메일 ksh03003@naver.com / 비밀번호 aa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 보안하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,10 +652,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3619,6 +3665,99 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3084286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>869664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7222695</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B72D554-3D65-4F58-AF40-133724EC5F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562929" y="1087378"/>
+          <a:ext cx="4138409" cy="3760744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1961370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7176530</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3729291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF46109-8813-46AC-A3BE-95F123978A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514928" y="6805513"/>
+          <a:ext cx="7140245" cy="1767921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3885,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4073,21 +4212,21 @@
         <v>30</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
@@ -4210,18 +4349,18 @@
       <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
@@ -4416,7 +4555,7 @@
         <v>81</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>82</v>
@@ -4460,24 +4599,38 @@
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="343.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="14" t="s">
-        <v>88</v>
+      <c r="A49" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B49" s="12">
         <v>44216</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" ht="238" x14ac:dyDescent="0.45">
-      <c r="C50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="12">
+        <v>44216</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+      <c r="C51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G27:G28"/>
@@ -4496,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD00AF-B3BA-4094-824D-8296F16B435A}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4590,18 +4743,18 @@
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
@@ -4653,18 +4806,18 @@
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
@@ -4785,14 +4938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.9140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="94.9140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4803,90 +4956,110 @@
       <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="374.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44217</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="296" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44217</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
@@ -4910,17 +5083,17 @@
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
@@ -4930,7 +5103,7 @@
     </row>
     <row r="26" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4938,44 +5111,44 @@
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
@@ -4998,60 +5171,60 @@
     <row r="38" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="315" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="253" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C49" s="15"/>
+      <c r="C49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5063,5 +5236,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AAD2F5-4CA9-4C5D-B053-34FEAD2EEC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99500D18-CD08-4730-ABA9-65A17A866713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="390" windowWidth="22230" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~19.1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="splite.ver" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +493,54 @@
   </si>
   <si>
     <t>2021-01_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원가입 기능을 위한 account 앱생성
+1) python manage.py startapp accounts 명령어로 앱 생성
+2) settings.py &gt; INSTALLED_APPS &gt; 'accounts.apps.AccountsConfig' 추가
+2, 로그인 구현을 위한 페이지 생성 login.html , signup.html 및 화면 구현
+3. accounts.views.py signup , login 함수 생성 및 url 매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_2일차</t>
+  </si>
+  <si>
+    <t>~19_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리한 작업 : git merge [커밋내역] : 커밋된 내역을 들고와 병합 
+* 브랜치 병합하기 : git merge [브랜치명]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조: https://goddaehee.tistory.com/275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. signup.html 보완
+2. accounts.views.py 보완
+  1)  회원가입을 구현하는데 있어 장고가 제공하는 편리한 라이브러리
+     from django.contrib.auth.models import User
+     from django.contrib import auth 
+    추가 후 signup() 함수 작성
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 위와 같이 코드를 짜고 실행시키면 데이터베이스 스키마에 변화가 발생한다.
+mirgrations는 변화를 감지하고 db가 업데이트 되도록 준비시킨다.
+migrate하면 auth_user 테이블이 생성되고 관리자 계정을 생성할수 있는 상태가 된다 ( craetesuperuser 사용가능 )
+:  run manage.py Task =&gt; mirgrations , migrate 입력
+4. 관리자 계정 생성:
+run manage.py Task -&gt; createsuperuser -&gt; 이름/이메일/패스워드 입력
+관리자명 kwak / 이메일 ksh03003@naver.com / 비밀번호 aa123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,59 +556,79 @@
 - 장고식으로 클릭 이벤트 구현하기
 -로그인구현
 - ajax구현
-- 앱별로 분류해보기 (https://ssungkang.tistory.com/entry/django-%ED%9A%A8%EC%9C%A8%EC%A0%81%EC%9D%B8-url-%EA%B4%80%EB%A6%AC) 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 회원가입 기능을 위한 account 앱생성
-1) python manage.py startapp accounts 명령어로 앱 생성
-2) settings.py &gt; INSTALLED_APPS &gt; 'accounts.apps.AccountsConfig' 추가
-2, 로그인 구현을 위한 페이지 생성 login.html , signup.html 및 화면 구현
-3. accounts.views.py signup , login 함수 생성 및 url 매핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19_2일차</t>
-  </si>
-  <si>
-    <t>~19_2일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리한 작업 : git merge [커밋내역] : 커밋된 내역을 들고와 병합 
-* 브랜치 병합하기 : git merge [브랜치명]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참조: https://goddaehee.tistory.com/275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. signup.html 보완
-2. accounts.views.py 보완
-  1)  회원가입을 구현하는데 있어 장고가 제공하는 편리한 라이브러리
-     from django.contrib.auth.models import User
-     from django.contrib import auth 
-    추가 후 signup() 함수 작성
+- 앱별로 분류해보기 (https://ssungkang.tistory.com/entry/django-%ED%9A%A8%EC%9C%A8%EC%A0%81%EC%9D%B8-url-%EA%B4%80%EB%A6%AC) 참조
+-드롭다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 로그인 유지하기 / 쿠키와 세션
+HTTP 통신은 비저장 프로토콜이다.  로그인을 할 때 아이디 비밀번호 정보도 POST 방식으로 보내기 때문에
+저장이 되지않는다. 로그인을 유지하기 위해선 다른 방법을 사용해야 한다.
+바로 쿠키와 세션!
+1. 쿠키: 웹 브라우저 로컬에 저장하는 키와 값이 들어있는 작은 데이터 파일
+- 만료시점 : 사용자 인증이 유효한 시간을 명시가능. 브라우저가 종료되도 유효시간이 남아있다면 인증이 유지됨
+- 구성요소: 이름 (쿠키에 대한 식별자) /  값(이름과 관련된 값) / 유효시간(쿠키의 유지시간) / 도메인(쿠키를 전송할 도메인) / 경로(쿠키를 전송할 도메인)
+- 용량제한: 클라이언트도 모르는 쿠키가 설정 될수 있기때문에 제한함 /도메인당 20개 / 모든 도메인에 300개 제한 /     
+               하나의 쿠키는 4KB / 하나의 도메인에 20개의 쿠키가 넘어가면 적게 사용된 쿠키부터 사용
+- 동작방식: 클라이언트가 페이지 요청 -&gt; 서버에서 쿠키 생성 -&gt; 헤더에 쿠키를 포함시켜 응답
+               -&gt; 브라우저가 종료되어도 쿠키 만료기간이 있다면 클라이언트에서 보관
+               -&gt; 같은 요청을 할 경우 HTTP 헤더에 쿠키를 함께 보냄
+- 쿠키의 예시 (방문사이트 로그인시 비밀번호 아이디 저장 / 쇼핑몰 장바구니)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 위와 같이 코드를 짜고 실행시키면 데이터베이스 스키마에 변화가 발생한다.
-mirgrations는 변화를 감지하고 db가 업데이트 되도록 준비시킨다.
-migrate하면 auth_user 테이블이 생성되고 관리자 계정을 생성할수 있는 상태가 된다 ( craetesuperuser 사용가능 )
-:  run manage.py Task =&gt; mirgrations , migrate 입력
-4. 관리자 계정 생성:
-run manage.py Task -&gt; createsuperuser -&gt; 이름/이메일/패스워드 입력
-관리자명 kwak / 이메일 ksh03003@naver.com / 비밀번호 aa123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 보안하기</t>
+    <t>로그인 보완하기
+ / 소셜로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 세션: 일정시간 동안 같은 사용자 브라우저로부터 들어오는 일련의 요구사항들을 하나의 상태로 보고
+          그 상태를 일정하게 유지시키는 기술
+- 쿠키와의 차이점: 쿠키는 사용자 정보를 브라우저에 저장하고 세션은 서버에서 관리한다.
+- 만료시점: 세션 ID를 부여하여 웹 브라우저가 서버에 접속하여 브라우저를 종료할 때 까지 인증상태 유지
+- 장점: 서버에 정보를 저장하기 때문에 보안에 우수하다.
+- 단점: 서버 메모리를 차지하여 성능 저하의 요인이 될 수 있다.
+- 동작방식: 클라이언트가 서버에 접속시 세션 ID를 발급 -&gt; 클라이언트는 세션 ID에 대한 쿠키를 사용하여 저장
+                -&gt; 클라이언트가 서버에 다시 접속시 이 쿠키를 이용해서 세션 ID값을 서버에 전달
+- 로그인과 같이 보안상 중요한 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todayis
+바깥으로 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(https://ssungkang.tistory.com/entry/Django-13-%EC%86%8C%EC%85%9C-%EB%A1%9C%EA%B7%B8%EC%9D%B8-%EA%B5%AC%ED%98%84-kakaogoogle-fackbook-%EB%93%B1?category=320582)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* def login 구현
+## 로그인 4가지 경우의 수
+    ##  1_ userId 쿠키가 존재하며 정상적으로 로그인 되는 경우 =&gt; 메인화면으로
+    ##  2_ userId 쿠키는 존재하나 로그인은 되지 않는 경우(아이디나 비밀번호가 틀린 경우) =&gt; 로그인 화면으로
+    ##  3_ 로그인 쿠키가 존재하지 않아 요청받아 로그인이 된 경우 =&gt; 쿠키에 저장 후 메인 화면으로
+    ##  4_ 로그인 쿠키가 존재하지 않아 요청받아 로그인을 시도했으나 틀린 경우 =&gt; 로그인 창으로
+set_cookies 함수를 통해 쿠키를 설정해주었다.
+f12 &gt; 응용프로그램 &gt; 쿠키로 확인 가능하다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-소셜로그인
+-todayis 바깥으로 빼기
+- 로그아웃 구현(쿠키제거)
+- 로그인 키 누르면 로그인 화면으로 가는 걸로
+- 테이블 구성도 바꿔야됨 즐겨찾기(일단 오라클로 해보자구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,13 +724,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3754,6 +3829,143 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2380355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5386779</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>999215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3A5733-51C9-4F45-90F0-33258E3C352F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1509155" y="17250900"/>
+          <a:ext cx="5355442" cy="3814315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47006</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1004454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5403273</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5021447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BDFBFC-A3D2-44AA-A23F-E0E843A98359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524824" y="21070454"/>
+          <a:ext cx="5356267" cy="4016993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5715002</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1824182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28119</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4618182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010307B-0F68-4A62-A450-9E431EC9481A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7192820" y="16694727"/>
+          <a:ext cx="5708481" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4026,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4212,21 +4424,21 @@
         <v>30</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
@@ -4349,18 +4561,18 @@
       <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
@@ -4600,33 +4812,33 @@
     </row>
     <row r="49" spans="1:4" ht="343.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="12">
         <v>44216</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="12">
         <v>44216</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C51" s="15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D51" s="13"/>
     </row>
@@ -4743,18 +4955,18 @@
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
@@ -4806,18 +5018,18 @@
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
@@ -4936,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4949,7 +5161,7 @@
     <col min="4" max="4" width="37.4140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4963,275 +5175,323 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="12">
         <v>44217</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="296" customHeight="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1" ht="296" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="12">
         <v>44217</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="20"/>
+    <row r="4" spans="1:4" s="14" customFormat="1" ht="340" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44218</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:4" s="14" customFormat="1" ht="153" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44218</v>
+      </c>
       <c r="C5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" s="18" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="12"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
+        <v>44220</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44220</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
+      <c r="C8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:4" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="22"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="14"/>
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="12"/>
       <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="11"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="279" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="315" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="12"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" ht="253" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10"/>
       <c r="B43" s="12"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10"/>
       <c r="B46" s="12"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
       <c r="B47" s="12"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C49" s="20"/>
+    <row r="49" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="10"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99500D18-CD08-4730-ABA9-65A17A866713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919CD63D-EC86-4C32-965E-3C336E5389E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="1180" windowWidth="20730" windowHeight="14200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~19.1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="splite.ver" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,11 +623,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>22_1일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">def logout 구현
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. /login : sign up 버튼 작동되도록 html 수정
+2. stockbar.html : logout 버튼 생성 및 잘 적용되도록 html수정
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-소셜로그인
 -todayis 바깥으로 빼기
 - 로그아웃 구현(쿠키제거)
 - 로그인 키 누르면 로그인 화면으로 가는 걸로
-- 테이블 구성도 바꿔야됨 즐겨찾기(일단 오라클로 해보자구)</t>
+- 테이블 구성도 바꿔야됨 즐겨찾기(일단 오라클로 해보자구)
+-잘못된 아이디 비밀번호로 로그인 됐을 경우 잘못됐다고 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,13 +749,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3966,6 +3988,50 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23092</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>265544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6662944</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2628074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40088E8B-3B99-4DD7-AFD7-DBF136C3FA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500910" y="25376908"/>
+          <a:ext cx="6639852" cy="2362530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4424,21 +4490,21 @@
         <v>30</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
@@ -4561,18 +4627,18 @@
       <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
@@ -4955,18 +5021,18 @@
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
@@ -5018,18 +5084,18 @@
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
@@ -5148,10 +5214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5244,254 +5310,278 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:4" s="20" customFormat="1" ht="209.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
         <v>106</v>
       </c>
+      <c r="B8" s="12">
+        <v>44221</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:4" s="20" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44221</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" s="14" customFormat="1" ht="148.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="22" t="s">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="11"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="316" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="394" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="12"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="14"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="14"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="11"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="345.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="300.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="10"/>
       <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="227" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10"/>
       <c r="B43" s="12"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="227" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:4" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="315" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="10"/>
       <c r="B46" s="12"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="253" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
       <c r="B47" s="12"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:4" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="389.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10"/>
       <c r="B49" s="12"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="10"/>
       <c r="B50" s="12"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="321" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="10"/>
       <c r="B51" s="12"/>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:3" ht="359" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/n일차구현상태.xlsx
+++ b/관련 폴더/n일차구현상태.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919CD63D-EC86-4C32-965E-3C336E5389E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A9822-9AA8-47D2-B8B1-7B5F20169F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3490" yWindow="1180" windowWidth="20730" windowHeight="14200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="1180" windowWidth="20730" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~19.1" sheetId="1" r:id="rId1"/>
@@ -543,23 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-html 수정
--  추후 값들 추가할 것
--예외처리 자세히
-- 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
-- 크롤링?
-- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
-- 내 주식 이율 계산기
-- 자세히에서 검색 버튼 추가
-- 로그인 기능 구현하기
-- 장고식으로 클릭 이벤트 구현하기
--로그인구현
-- ajax구현
-- 앱별로 분류해보기 (https://ssungkang.tistory.com/entry/django-%ED%9A%A8%EC%9C%A8%EC%A0%81%EC%9D%B8-url-%EA%B4%80%EB%A6%AC) 참조
--드롭다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21_1일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,22 +615,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22-2일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. /login : sign up 버튼 작동되도록 html 수정
 2. stockbar.html : logout 버튼 생성 및 잘 적용되도록 html수정
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-소셜로그인
+    <t>22_2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-소셜로그인
 -todayis 바깥으로 빼기
 - 로그아웃 구현(쿠키제거)
 - 로그인 키 누르면 로그인 화면으로 가는 걸로
 - 테이블 구성도 바꿔야됨 즐겨찾기(일단 오라클로 해보자구)
--잘못된 아이디 비밀번호로 로그인 됐을 경우 잘못됐다고 구현</t>
+-잘못된 아이디 비밀번호로 로그인 됐을 경우 잘못됐다고 알려주기
+-로그인 된 상태에서 login 창으로 들어가서 로그인 하면 로그인이 안됨
+-메인화면에서도 로그아웃 버튼 만들기
+-메인화면에서도 즐겨찾기 삭제 만들기
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-html 수정
+-  추후 값들 추가할 것
+-예외처리 자세히
+- 테이블 구성?(시퀀스 구성해야하나?) / 시퀀스란 무엇인가
+- 크롤링?
+- 게시판 만들기/페이지 처리하기(ajax로 처리해야할듯)
+- 내 주식 이율 계산기
+- 자세히에서 검색 버튼 추가
+- 로그인 기능 구현하기
+- ajax구현
+- 앱별로 분류해보기 (https://ssungkang.tistory.com/entry/django-%ED%9A%A8%EC%9C%A8%EC%A0%81%EC%9D%B8-url-%EA%B4%80%EB%A6%AC) 참조
+-드롭다운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4304,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4904,7 +4906,7 @@
     </row>
     <row r="51" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C51" s="15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D51" s="13"/>
     </row>
@@ -5216,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073D4A0-3A69-4E6B-9758-E94AC60685AD}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5266,43 +5268,43 @@
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" ht="340" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="12">
         <v>44218</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" ht="153" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12">
         <v>44218</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" s="18" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="12">
         <v>44220</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="12">
         <v>44220</v>
@@ -5312,13 +5314,13 @@
     </row>
     <row r="8" spans="1:4" s="20" customFormat="1" ht="209.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="12">
         <v>44221</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -5330,20 +5332,20 @@
         <v>44221</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" s="18" customFormat="1" ht="397.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12"/>
       <c r="C10" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -5359,16 +5361,16 @@
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" s="14" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
